--- a/biology/Histoire de la zoologie et de la botanique/John_Claudius_Loudon/John_Claudius_Loudon.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Claudius_Loudon/John_Claudius_Loudon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Claudius Loudon est un botaniste écossais, né le 8 avril 1783 et mort le 14 décembre 1843.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Loudon naît à Cambuslang, Lanarkshire, en Écosse dans une ferme prospère. Il y passe sa jeunesse et apprend très tôt des notions pratiques sur les végétaux et l'agriculture. Adolescent, Loudon étudie la chimie, la botanique et l'agriculture à l'université d'Édimbourg.
 Vers 1803, Loudon publie un article intitulé Observations on Laying out the Public Spaces in London dans un journal littéraire. Dans cet article, il recommande l'introduction d'arbres clairs plutôt que des espèces au feuillage dense. Loudon est atteint d'une crise de rhumatisme articulaire aigu en 1806 qui laisse sa main gauche estropiée, mais il peut continuer à écrire. Comme sa condition se détériore avec le temps, Loudon est forcé d'employer les services d'un dessinateur et d'autres personnes pour l'aider.
@@ -550,7 +564,9 @@
           <t>Principales réalisations de Loudon</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Birmingham Botanical Gardens
 Derby Arboretum, Derby City
